--- a/biology/Médecine/1503_en_santé_et_médecine/1503_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1503_en_santé_et_médecine/1503_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1503_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1503_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1503 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1503_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1503_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>29 novembre : début de la construction, par Nicolás de Ovando, de l'hôpital San Nicolás de Bari (en) à Saint-Domingue, « premier hôpital du Nouveau Monde[1] ».
-Jeanne Ire de Castille, dite Jeanne la Folle, femme de Philippe le Beau et mère de Charles Quint, commence à présenter « des symptômes non équivoques de démence[2] ».
-Première description historique du choléra par un Européen (un officier de Vasco de Gama), qui décrit une épidémie de diarrhées cataclysmiques rapidement mortelles (en 8 heures) et ayant provoqué 20 000 morts à Calicut (Inde)[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29 novembre : début de la construction, par Nicolás de Ovando, de l'hôpital San Nicolás de Bari (en) à Saint-Domingue, « premier hôpital du Nouveau Monde ».
+Jeanne Ire de Castille, dite Jeanne la Folle, femme de Philippe le Beau et mère de Charles Quint, commence à présenter « des symptômes non équivoques de démence ».
+Première description historique du choléra par un Européen (un officier de Vasco de Gama), qui décrit une épidémie de diarrhées cataclysmiques rapidement mortelles (en 8 heures) et ayant provoqué 20 000 morts à Calicut (Inde).</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1503_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1503_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Joseph Grünpeck (1473-1530), fait imprimer par Albrecht Kunne, à Memmingen, son Libellus de mentulagra alias morbo gallico (« De la mentulagre ou du mal français »), un des premiers ouvrages traitant de la syphilis[4],[5].
-Première édition, imprimée à Lyon par Jean Ier de Vingle pour Étienne Gueynard, de la Grande Chirurgie de Guy de Chauliac (1300-1368) dans la traduction française de Symphorien Champier (1471-1539[6],[7]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Joseph Grünpeck (1473-1530), fait imprimer par Albrecht Kunne, à Memmingen, son Libellus de mentulagra alias morbo gallico (« De la mentulagre ou du mal français »), un des premiers ouvrages traitant de la syphilis,.
+Première édition, imprimée à Lyon par Jean Ier de Vingle pour Étienne Gueynard, de la Grande Chirurgie de Guy de Chauliac (1300-1368) dans la traduction française de Symphorien Champier (1471-1539,).</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1503_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1503_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14 décembre : Nostradamus (mort en 1566), apothicaire, médecin et astrologue provençal[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14 décembre : Nostradamus (mort en 1566), apothicaire, médecin et astrologue provençal.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1503_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1503_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Adolphe Occon (né en 1447), poète et médecin originaire de Frise orientale, au service de Sigismond, archiduc d'Autriche ; mort à Augsbourg, cousin d'un autre Adolphe Occon (1494-1572), également médecin, qu'il a adopté et institué son héritier universel[9].
-Pere Pintor (ca) (né en 1420), médecin espagnol, professeur à Valence, médecin du pape Alexandre VI, auteur de l'Aggregator sententiarum et curatione (1499) et du De morbo foedo et occulto, his temporibus affligente (1500[10]).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Adolphe Occon (né en 1447), poète et médecin originaire de Frise orientale, au service de Sigismond, archiduc d'Autriche ; mort à Augsbourg, cousin d'un autre Adolphe Occon (1494-1572), également médecin, qu'il a adopté et institué son héritier universel.
+Pere Pintor (ca) (né en 1420), médecin espagnol, professeur à Valence, médecin du pape Alexandre VI, auteur de l'Aggregator sententiarum et curatione (1499) et du De morbo foedo et occulto, his temporibus affligente (1500).</t>
         </is>
       </c>
     </row>
